--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>Mat</t>
   </si>
@@ -79,181 +79,58 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ANGELES</t>
-  </si>
-  <si>
-    <t>FIGUEROA</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>ACEVEDO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>CUATRA</t>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>OLIVARES</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
   </si>
   <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>MAZAHUA</t>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>HIPOLITO</t>
   </si>
   <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ROCHA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>CANTU</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>COYOHUA</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>JACOBO</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>MEDINA</t>
-  </si>
-  <si>
-    <t>SORIA</t>
-  </si>
-  <si>
-    <t>ATENOGENES</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>ORLANDO</t>
-  </si>
-  <si>
-    <t>MARIA VALERIA</t>
+    <t>GARNICA</t>
+  </si>
+  <si>
+    <t>MIXCOHA</t>
   </si>
   <si>
     <t>MIGUEL</t>
   </si>
   <si>
-    <t>ALDAHIR</t>
-  </si>
-  <si>
-    <t>ITZEEL GUADALUPE</t>
-  </si>
-  <si>
-    <t>JUAN DIEGO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>JOSE DAMIAN</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>VICTOR ISRAEL</t>
-  </si>
-  <si>
-    <t>JOSE EDUARDO</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
-    <t>GERSON UZIEL</t>
-  </si>
-  <si>
-    <t>JESUS EMMANUEL</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>OMAR</t>
-  </si>
-  <si>
-    <t>JAFET</t>
+    <t>PAOLA JAZMIN</t>
+  </si>
+  <si>
+    <t>JOSE JULIAN</t>
+  </si>
+  <si>
+    <t>ALDO GEOVANNI</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS</t>
+  </si>
+  <si>
+    <t>CRISTHIAN ALFONSO</t>
   </si>
 </sst>
 </file>
@@ -657,16 +534,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>58.97</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -680,16 +560,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.18000000000001</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -703,16 +586,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -726,16 +612,19 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H5">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -749,16 +638,19 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H6">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +709,7 @@
         <v>39</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -840,7 +732,7 @@
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -863,7 +755,7 @@
         <v>43</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -886,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -909,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -971,16 +863,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>58.97</v>
+      </c>
+      <c r="H2">
+        <v>8.1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -994,16 +889,19 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.18000000000001</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1017,16 +915,19 @@
         <v>43</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>81.40000000000001</v>
+      </c>
+      <c r="H4">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1040,16 +941,19 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>64.29000000000001</v>
+      </c>
+      <c r="H5">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1063,16 +967,19 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H6">
+        <v>8.300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1117,16 +1024,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920002</v>
+        <v>21330051920379</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1140,22 +1047,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920291</v>
+        <v>20330051920185</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1163,22 +1070,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920355</v>
+        <v>21330051920092</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1186,22 +1093,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920379</v>
+        <v>21330051920098</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1209,22 +1116,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920001</v>
+        <v>21330051920115</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1232,346 +1139,24 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920004</v>
+        <v>21330051920139</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>21330051920008</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920049</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>21330051920010</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>21330051920011</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920391</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>21330051920015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920022</v>
-      </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21330051920018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21330051920356</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>21330051920019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>21330051920021</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>21330051920022</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>21330051920027</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>21330051920028</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,9 @@
     <t>MORALES</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>GALEOTE</t>
+  </si>
+  <si>
     <t>YOPIHUA</t>
   </si>
   <si>
@@ -116,6 +122,9 @@
   </si>
   <si>
     <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>ZURY BETZABE</t>
   </si>
   <si>
     <t>PAOLA JAZMIN</t>
@@ -531,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -543,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
         <v>8.1</v>
@@ -635,10 +644,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -647,7 +656,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H6">
         <v>8.300000000000001</v>
@@ -703,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -795,10 +804,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>15</v>
@@ -860,10 +869,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -872,7 +881,7 @@
         <v>23</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
         <v>8.1</v>
@@ -964,10 +973,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -976,7 +985,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>83.33</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H6">
         <v>8.300000000000001</v>
@@ -989,7 +998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1030,10 +1039,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1047,16 +1056,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920185</v>
+        <v>21330051920045</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1070,22 +1079,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>21330051920092</v>
+        <v>20330051920185</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1093,16 +1102,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920098</v>
+        <v>21330051920092</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1116,22 +1125,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920115</v>
+        <v>21330051920098</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1139,24 +1148,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920139</v>
+        <v>21330051920115</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>21330051920139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
+++ b/docentes/Contreras Díaz Irma Ivette - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t>Mat</t>
   </si>
@@ -79,9 +79,15 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>COBOS</t>
+  </si>
+  <si>
     <t>MORALES</t>
   </si>
   <si>
+    <t>TAMAYO</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -100,9 +106,15 @@
     <t>FLORES</t>
   </si>
   <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
     <t>GALEOTE</t>
   </si>
   <si>
@@ -121,7 +133,13 @@
     <t>MIXCOHA</t>
   </si>
   <si>
+    <t>YOLET</t>
+  </si>
+  <si>
     <t>MIGUEL</t>
+  </si>
+  <si>
+    <t>JOSMAR JAHIR</t>
   </si>
   <si>
     <t>ZURY BETZABE</t>
@@ -998,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,16 +1051,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920379</v>
+        <v>21330051920007</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1056,22 +1074,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920045</v>
+        <v>21330051920379</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>6</v>
@@ -1079,22 +1097,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920185</v>
+        <v>21330051920025</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1102,22 +1120,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920092</v>
+        <v>21330051920045</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>6</v>
@@ -1125,22 +1143,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920098</v>
+        <v>20330051920185</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1148,22 +1166,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>21330051920115</v>
+        <v>21330051920092</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1171,24 +1189,70 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920139</v>
+        <v>21330051920098</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>21330051920115</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>21330051920139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>6</v>
       </c>
     </row>
